--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,142 +58,139 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>beautiful</t>
+    <t>best</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>cakes</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cheese</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>perfectly</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>daughter</t>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>bread</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
     <t>wife</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
     <t>gift</t>
   </si>
   <si>
     <t>ever</t>
   </si>
   <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>keeps</t>
   </si>
   <si>
+    <t>cook</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>works</t>
   </si>
   <si>
     <t>pan</t>
   </si>
   <si>
-    <t>well</t>
+    <t>recommend</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>quality</t>
   </si>
   <si>
+    <t>coffee</t>
+  </si>
+  <si>
     <t>clean</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
     <t>makes</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>coffee</t>
+    <t>make</t>
   </si>
   <si>
     <t>little</t>
@@ -209,9 +206,6 @@
   </si>
   <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>used</t>
   </si>
   <si>
     <t>use</t>
@@ -575,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,7 +580,7 @@
         <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -718,13 +712,13 @@
         <v>13</v>
       </c>
       <c r="K4">
-        <v>0.8828125</v>
+        <v>0.8984375</v>
       </c>
       <c r="L4">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -736,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -744,13 +738,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1621621621621622</v>
+        <v>0.172972972972973</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -762,19 +756,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K5">
-        <v>0.8699690402476781</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L5">
-        <v>562</v>
+        <v>60</v>
       </c>
       <c r="M5">
-        <v>562</v>
+        <v>60</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -786,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>84</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -794,13 +788,13 @@
         <v>15</v>
       </c>
       <c r="K6">
-        <v>0.8695652173913043</v>
+        <v>0.8637770897832817</v>
       </c>
       <c r="L6">
-        <v>60</v>
+        <v>558</v>
       </c>
       <c r="M6">
-        <v>60</v>
+        <v>558</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -812,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -820,13 +814,13 @@
         <v>16</v>
       </c>
       <c r="K7">
-        <v>0.8043478260869565</v>
+        <v>0.7186147186147186</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -846,13 +840,13 @@
         <v>17</v>
       </c>
       <c r="K8">
-        <v>0.75</v>
+        <v>0.7084745762711865</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>209</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>209</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -864,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -872,13 +866,13 @@
         <v>18</v>
       </c>
       <c r="K9">
-        <v>0.726027397260274</v>
+        <v>0.6753246753246753</v>
       </c>
       <c r="L9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -890,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -898,13 +892,13 @@
         <v>19</v>
       </c>
       <c r="K10">
-        <v>0.7229437229437229</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L10">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -916,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -924,13 +918,13 @@
         <v>20</v>
       </c>
       <c r="K11">
-        <v>0.6888888888888889</v>
+        <v>0.65625</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -942,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -950,13 +944,13 @@
         <v>21</v>
       </c>
       <c r="K12">
-        <v>0.6883116883116883</v>
+        <v>0.6524879614767255</v>
       </c>
       <c r="L12">
-        <v>53</v>
+        <v>813</v>
       </c>
       <c r="M12">
-        <v>53</v>
+        <v>813</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -968,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -976,13 +970,13 @@
         <v>22</v>
       </c>
       <c r="K13">
-        <v>0.6847457627118644</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L13">
-        <v>202</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>202</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -994,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>93</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1002,13 +996,13 @@
         <v>23</v>
       </c>
       <c r="K14">
-        <v>0.671875</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L14">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M14">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1020,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1028,13 +1022,13 @@
         <v>24</v>
       </c>
       <c r="K15">
-        <v>0.6619718309859155</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L15">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M15">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1046,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1054,13 +1048,13 @@
         <v>25</v>
       </c>
       <c r="K16">
-        <v>0.6470588235294118</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L16">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="M16">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1072,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1080,13 +1074,13 @@
         <v>26</v>
       </c>
       <c r="K17">
-        <v>0.6332263242375602</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="L17">
-        <v>789</v>
+        <v>59</v>
       </c>
       <c r="M17">
-        <v>789</v>
+        <v>59</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1098,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>457</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1106,13 +1100,13 @@
         <v>27</v>
       </c>
       <c r="K18">
-        <v>0.6057142857142858</v>
+        <v>0.5662650602409639</v>
       </c>
       <c r="L18">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="M18">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1124,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>69</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1132,13 +1126,13 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.5789473684210527</v>
+        <v>0.5633802816901409</v>
       </c>
       <c r="L19">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M19">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1150,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1158,13 +1152,13 @@
         <v>29</v>
       </c>
       <c r="K20">
-        <v>0.5769230769230769</v>
+        <v>0.5449101796407185</v>
       </c>
       <c r="L20">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="M20">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1176,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>44</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1184,13 +1178,13 @@
         <v>30</v>
       </c>
       <c r="K21">
-        <v>0.5714285714285714</v>
+        <v>0.5394736842105263</v>
       </c>
       <c r="L21">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M21">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1202,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1210,13 +1204,13 @@
         <v>31</v>
       </c>
       <c r="K22">
-        <v>0.5470085470085471</v>
+        <v>0.5371428571428571</v>
       </c>
       <c r="L22">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="M22">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1228,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1236,13 +1230,13 @@
         <v>32</v>
       </c>
       <c r="K23">
-        <v>0.5384615384615384</v>
+        <v>0.5245901639344263</v>
       </c>
       <c r="L23">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1254,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1262,13 +1256,13 @@
         <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5089820359281437</v>
+        <v>0.51</v>
       </c>
       <c r="L24">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="M24">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1280,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>82</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1288,13 +1282,13 @@
         <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5060240963855421</v>
+        <v>0.4957264957264957</v>
       </c>
       <c r="L25">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="M25">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1306,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1314,13 +1308,13 @@
         <v>35</v>
       </c>
       <c r="K26">
-        <v>0.5</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1332,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1340,13 +1334,13 @@
         <v>36</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>0.4759036144578313</v>
       </c>
       <c r="L27">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="M27">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1358,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>50</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1366,13 +1360,13 @@
         <v>37</v>
       </c>
       <c r="K28">
-        <v>0.4814814814814815</v>
+        <v>0.4586466165413534</v>
       </c>
       <c r="L28">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="M28">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1384,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1392,13 +1386,13 @@
         <v>38</v>
       </c>
       <c r="K29">
-        <v>0.4578313253012048</v>
+        <v>0.4124513618677043</v>
       </c>
       <c r="L29">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="M29">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1410,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>90</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1418,13 +1412,13 @@
         <v>39</v>
       </c>
       <c r="K30">
-        <v>0.443609022556391</v>
+        <v>0.3995098039215687</v>
       </c>
       <c r="L30">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="M30">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1436,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>74</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1444,13 +1438,13 @@
         <v>40</v>
       </c>
       <c r="K31">
-        <v>0.3963963963963964</v>
+        <v>0.3643835616438356</v>
       </c>
       <c r="L31">
-        <v>44</v>
+        <v>266</v>
       </c>
       <c r="M31">
-        <v>44</v>
+        <v>266</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1462,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>67</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1470,13 +1464,13 @@
         <v>41</v>
       </c>
       <c r="K32">
-        <v>0.3813229571984436</v>
+        <v>0.3309352517985611</v>
       </c>
       <c r="L32">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="M32">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1488,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>159</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1496,13 +1490,13 @@
         <v>42</v>
       </c>
       <c r="K33">
-        <v>0.3726027397260274</v>
+        <v>0.3233082706766917</v>
       </c>
       <c r="L33">
-        <v>272</v>
+        <v>43</v>
       </c>
       <c r="M33">
-        <v>272</v>
+        <v>43</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1514,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>458</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1522,13 +1516,13 @@
         <v>43</v>
       </c>
       <c r="K34">
-        <v>0.3627450980392157</v>
+        <v>0.3110047846889952</v>
       </c>
       <c r="L34">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="M34">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1540,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>260</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1548,13 +1542,13 @@
         <v>44</v>
       </c>
       <c r="K35">
-        <v>0.3383458646616541</v>
+        <v>0.3063063063063063</v>
       </c>
       <c r="L35">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="M35">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1566,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1574,13 +1568,13 @@
         <v>45</v>
       </c>
       <c r="K36">
-        <v>0.3381294964028777</v>
+        <v>0.304635761589404</v>
       </c>
       <c r="L36">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M36">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1592,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1600,13 +1594,13 @@
         <v>46</v>
       </c>
       <c r="K37">
-        <v>0.2727272727272727</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L37">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="M37">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1618,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>152</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1626,13 +1620,13 @@
         <v>47</v>
       </c>
       <c r="K38">
-        <v>0.271523178807947</v>
+        <v>0.2723358449946179</v>
       </c>
       <c r="L38">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="M38">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1644,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>110</v>
+        <v>676</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1652,13 +1646,13 @@
         <v>48</v>
       </c>
       <c r="K39">
-        <v>0.2551130247578041</v>
+        <v>0.2327365728900256</v>
       </c>
       <c r="L39">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="M39">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1670,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>692</v>
+        <v>600</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1678,13 +1672,13 @@
         <v>49</v>
       </c>
       <c r="K40">
-        <v>0.2185430463576159</v>
+        <v>0.2278145695364238</v>
       </c>
       <c r="L40">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M40">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1696,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>590</v>
+        <v>583</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1704,13 +1698,13 @@
         <v>50</v>
       </c>
       <c r="K41">
-        <v>0.2068965517241379</v>
+        <v>0.2225705329153605</v>
       </c>
       <c r="L41">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="M41">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1722,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1730,25 +1724,25 @@
         <v>51</v>
       </c>
       <c r="K42">
-        <v>0.1984635083226632</v>
+        <v>0.1869918699186992</v>
       </c>
       <c r="L42">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="M42">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="N42">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O42">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>626</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1756,13 +1750,13 @@
         <v>52</v>
       </c>
       <c r="K43">
-        <v>0.1829268292682927</v>
+        <v>0.1768292682926829</v>
       </c>
       <c r="L43">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M43">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1774,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1782,13 +1776,13 @@
         <v>53</v>
       </c>
       <c r="K44">
-        <v>0.1694915254237288</v>
+        <v>0.1551312649164678</v>
       </c>
       <c r="L44">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="M44">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1800,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>147</v>
+        <v>354</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1808,25 +1802,25 @@
         <v>54</v>
       </c>
       <c r="K45">
-        <v>0.1626794258373206</v>
+        <v>0.15</v>
       </c>
       <c r="L45">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M45">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N45">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>350</v>
+        <v>374</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1834,13 +1828,13 @@
         <v>55</v>
       </c>
       <c r="K46">
-        <v>0.162280701754386</v>
+        <v>0.1469298245614035</v>
       </c>
       <c r="L46">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="M46">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1852,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1860,25 +1854,25 @@
         <v>56</v>
       </c>
       <c r="K47">
-        <v>0.1617250673854447</v>
+        <v>0.1449814126394052</v>
       </c>
       <c r="L47">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="M47">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>311</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1886,13 +1880,13 @@
         <v>57</v>
       </c>
       <c r="K48">
-        <v>0.1512915129151292</v>
+        <v>0.1338199513381995</v>
       </c>
       <c r="L48">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="M48">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1904,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>230</v>
+        <v>356</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1912,25 +1906,25 @@
         <v>58</v>
       </c>
       <c r="K49">
-        <v>0.1512195121951219</v>
+        <v>0.1301115241635688</v>
       </c>
       <c r="L49">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="M49">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="N49">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O49">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>348</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1938,25 +1932,25 @@
         <v>59</v>
       </c>
       <c r="K50">
-        <v>0.1477272727272727</v>
+        <v>0.1241379310344828</v>
       </c>
       <c r="L50">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="M50">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>375</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1964,25 +1958,25 @@
         <v>60</v>
       </c>
       <c r="K51">
-        <v>0.1237113402061856</v>
+        <v>0.09182209469153516</v>
       </c>
       <c r="L51">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="M51">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>255</v>
+        <v>633</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1990,25 +1984,25 @@
         <v>61</v>
       </c>
       <c r="K52">
-        <v>0.09195402298850575</v>
+        <v>0.08776844070961717</v>
       </c>
       <c r="L52">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="M52">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="N52">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O52">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>632</v>
+        <v>977</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2016,25 +2010,25 @@
         <v>62</v>
       </c>
       <c r="K53">
-        <v>0.09073900841908325</v>
+        <v>0.08743169398907104</v>
       </c>
       <c r="L53">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="M53">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="N53">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>972</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2042,25 +2036,25 @@
         <v>63</v>
       </c>
       <c r="K54">
-        <v>0.08469945355191257</v>
+        <v>0.06481481481481481</v>
       </c>
       <c r="L54">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M54">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>335</v>
+        <v>505</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2068,13 +2062,13 @@
         <v>64</v>
       </c>
       <c r="K55">
-        <v>0.06839186691312385</v>
+        <v>0.05887445887445888</v>
       </c>
       <c r="L55">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="M55">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="N55">
         <v>0.97</v>
@@ -2086,59 +2080,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="56" spans="10:17">
-      <c r="J56" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K56">
-        <v>0.0576923076923077</v>
-      </c>
-      <c r="L56">
-        <v>30</v>
-      </c>
-      <c r="M56">
-        <v>32</v>
-      </c>
-      <c r="N56">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O56">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P56" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q56">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="57" spans="10:17">
-      <c r="J57" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K57">
-        <v>0.04592720970537262</v>
-      </c>
-      <c r="L57">
-        <v>53</v>
-      </c>
-      <c r="M57">
-        <v>56</v>
-      </c>
-      <c r="N57">
-        <v>0.95</v>
-      </c>
-      <c r="O57">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P57" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q57">
-        <v>1101</v>
+        <v>1087</v>
       </c>
     </row>
   </sheetData>
